--- a/Lab2/Graphs.xlsx
+++ b/Lab2/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIKSS\Desktop\TDDD56\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92BFFFA-93E1-4C26-8E3D-E76A269FB463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F05530-993A-4D46-BF69-2F85F6DAA97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,40 +26,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
-  <si>
-    <t>Lock FREE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Nb threads </t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time LB</t>
   </si>
   <si>
-    <t>PUSH</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>CAS LOCK</t>
+    <t>Time CAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,28 +61,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.45"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,24 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,12 +157,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Lock-based concurrent stack</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>POP</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-FR" u="none"/>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> - LB vs CAS</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -255,7 +206,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>POP</c:v>
+            <c:strRef>
+              <c:f>Feuil1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time LB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -283,7 +242,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$4:$A$11</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -316,33 +275,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$4:$B$11</c:f>
+              <c:f>Feuil1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.6200000000000003E-4</c:v>
+                  <c:v>2.2648000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.421E-3</c:v>
+                  <c:v>6.3663999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5200000000000002E-4</c:v>
+                  <c:v>4.6365000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.034E-3</c:v>
+                  <c:v>6.5003000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1000000000000001E-3</c:v>
+                  <c:v>5.8273999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>7.1412000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2229999999999999E-3</c:v>
+                  <c:v>7.7787999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1119999999999999E-3</c:v>
+                  <c:v>8.2048999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,7 +309,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E6E9-4DBE-B177-599C2D4695EB}"/>
+              <c16:uniqueId val="{00000000-6A5D-4408-A336-9A9B3CE508BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -358,7 +317,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>PUSH</c:v>
+            <c:strRef>
+              <c:f>Feuil1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -386,7 +353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$4:$A$11</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -419,33 +386,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$16:$B$23</c:f>
+              <c:f>Feuil1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.9799999999999998E-4</c:v>
+                  <c:v>1.8343000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.41E-4</c:v>
+                  <c:v>4.6628999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0999999999999996E-4</c:v>
+                  <c:v>5.4593000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6100000000000005E-4</c:v>
+                  <c:v>5.6809999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2110000000000001E-3</c:v>
+                  <c:v>5.4737000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0970000000000001E-3</c:v>
+                  <c:v>5.8272999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.23E-3</c:v>
+                  <c:v>6.0990000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.325E-3</c:v>
+                  <c:v>6.1952E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,7 +420,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E6E9-4DBE-B177-599C2D4695EB}"/>
+              <c16:uniqueId val="{00000001-6A5D-4408-A336-9A9B3CE508BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -465,14 +432,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427682488"/>
-        <c:axId val="427683472"/>
+        <c:axId val="416847288"/>
+        <c:axId val="416845648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427682488"/>
+        <c:axId val="416847288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -511,7 +477,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Nb of threads</a:t>
+                  <a:t>Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -582,15 +548,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427683472"/>
+        <c:crossAx val="416845648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427683472"/>
+        <c:axId val="416845648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -629,11 +594,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Exec time (s)</a:t>
+                  <a:t>Running</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.29510790317876934"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -700,7 +678,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427682488"/>
+        <c:crossAx val="416847288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -713,7 +691,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -821,12 +799,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>CAS-based concurrent stack </a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>PUSH - LB vs</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-FR" u="none"/>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> CAS</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -869,7 +849,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>POP</c:v>
+            <c:strRef>
+              <c:f>Feuil2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time LB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -897,7 +885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$A$6:$A$13</c:f>
+              <c:f>Feuil2!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -930,33 +918,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$B$6:$B$13</c:f>
+              <c:f>Feuil2!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0900000000000001E-4</c:v>
+                  <c:v>2.3529999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7099999999999997E-4</c:v>
+                  <c:v>5.9660999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2199999999999999E-4</c:v>
+                  <c:v>4.5213000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.134E-3</c:v>
+                  <c:v>5.6910000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23E-3</c:v>
+                  <c:v>6.1149000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2999999999999999E-3</c:v>
+                  <c:v>6.3496999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2359999999999999E-3</c:v>
+                  <c:v>7.0893999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8499999999999999E-4</c:v>
+                  <c:v>7.0289000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +952,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FBB-4C49-B3D0-BC34023B0441}"/>
+              <c16:uniqueId val="{00000000-9FC0-4EA6-8241-3ADCF2BFE58C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -972,7 +960,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>PUSH</c:v>
+            <c:strRef>
+              <c:f>Feuil2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1000,7 +996,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$A$6:$A$13</c:f>
+              <c:f>Feuil2!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1033,33 +1029,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$B$18:$B$25</c:f>
+              <c:f>Feuil2!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9100000000000001E-4</c:v>
+                  <c:v>1.5834000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0500000000000001E-4</c:v>
+                  <c:v>4.3658000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.052E-3</c:v>
+                  <c:v>4.4159999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6399999999999999E-4</c:v>
+                  <c:v>4.8454999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.431E-3</c:v>
+                  <c:v>5.2305999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6200000000000003E-4</c:v>
+                  <c:v>4.8752999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0100000000000001E-4</c:v>
+                  <c:v>5.1938999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.23E-4</c:v>
+                  <c:v>4.965E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,12 +1063,11 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FBB-4C49-B3D0-BC34023B0441}"/>
+              <c16:uniqueId val="{00000001-9FC0-4EA6-8241-3ADCF2BFE58C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1080,14 +1075,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427682488"/>
-        <c:axId val="427683472"/>
+        <c:axId val="555594400"/>
+        <c:axId val="555594728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427682488"/>
+        <c:axId val="555594400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1126,7 +1120,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Nb of threads</a:t>
+                  <a:t>Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1197,15 +1191,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427683472"/>
+        <c:crossAx val="555594728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427683472"/>
+        <c:axId val="555594728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1244,11 +1237,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Exec time (s)</a:t>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.25754994167395739"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1315,7 +1320,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427682488"/>
+        <c:crossAx val="555594400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1328,7 +1333,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2518,23 +2523,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CEAA03-24A4-4594-ABA4-98BBB07AD6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D5F5AC-3A21-4811-8A2F-B74DD4083674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,29 +2564,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706DDE28-BE2F-457D-914C-E6E4971485B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAFDC6A-40A6-473D-AE72-BC64D9985395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2861,177 +2864,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.2648000000000001E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.8343000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.3663999999999998E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.6628999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.6365000000000003E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.4593000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="2">
+        <v>6.5003000000000005E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.6809999999999999E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.8273999999999999E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.4737000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.6200000000000003E-4</v>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.1412000000000003E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.8272999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.421E-3</v>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.7787999999999996E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.0990000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.5200000000000002E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.034E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.2229999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.1119999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2.9799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9.41E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
-        <v>8.0999999999999996E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2">
-        <v>9.6100000000000005E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.2110000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.0970000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.23E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.325E-3</v>
+        <v>8.2048999999999997E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.1952E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3042,183 +2979,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230EDE7E-9611-431D-9CF2-64B4F4C4CAF6}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEBCA92-CFE0-4014-9638-01D7A52B73BF}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.3529999999999999E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.5834000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.9660999999999999E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.3658000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.5213000000000003E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.4159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.6910000000000002E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.8454999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>6.1149000000000002E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.2305999999999998E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.3496999999999998E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.8752999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.0893999999999999E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.1938999999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.0900000000000001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9.7099999999999997E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7.2199999999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1.134E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.23E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.2359999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2.8499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.9100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7.0500000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.052E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6.6399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.431E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <v>8.6200000000000003E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2.0100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2.23E-4</v>
+        <v>7.0289000000000004E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.965E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab2/Graphs.xlsx
+++ b/Lab2/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIKSS\Desktop\TDDD56\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F05530-993A-4D46-BF69-2F85F6DAA97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AD2492-47B5-43B1-9E78-D3D796B9FE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,28 +280,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.2648000000000001E-2</c:v>
+                  <c:v>2.4053999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3663999999999998E-2</c:v>
+                  <c:v>5.6524999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6365000000000003E-2</c:v>
+                  <c:v>4.5687999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5003000000000005E-2</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8273999999999999E-2</c:v>
+                  <c:v>6.1399000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1412000000000003E-2</c:v>
+                  <c:v>6.5378000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7787999999999996E-2</c:v>
+                  <c:v>7.1617E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2048999999999997E-2</c:v>
+                  <c:v>6.7573999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,28 +391,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8343000000000002E-2</c:v>
+                  <c:v>1.8183999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6628999999999997E-2</c:v>
+                  <c:v>4.9658000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4593000000000003E-2</c:v>
+                  <c:v>4.9090000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6809999999999999E-2</c:v>
+                  <c:v>5.7638000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4737000000000001E-2</c:v>
+                  <c:v>6.2960000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8272999999999998E-2</c:v>
+                  <c:v>6.1316000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0990000000000003E-2</c:v>
+                  <c:v>6.2125E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1952E-2</c:v>
+                  <c:v>5.8132999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,28 +923,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3529999999999999E-2</c:v>
+                  <c:v>2.8351999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9660999999999999E-2</c:v>
+                  <c:v>7.0140999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5213000000000003E-2</c:v>
+                  <c:v>5.2141E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6910000000000002E-2</c:v>
+                  <c:v>7.1817000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1149000000000002E-2</c:v>
+                  <c:v>7.1817000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3496999999999998E-2</c:v>
+                  <c:v>7.5051999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0893999999999999E-2</c:v>
+                  <c:v>7.9209000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0289000000000004E-2</c:v>
+                  <c:v>9.0805999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,28 +1034,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.5834000000000001E-2</c:v>
+                  <c:v>2.2835000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3658000000000002E-2</c:v>
+                  <c:v>3.8287000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4159999999999998E-2</c:v>
+                  <c:v>4.8240999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8454999999999998E-2</c:v>
+                  <c:v>5.9478999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2305999999999998E-2</c:v>
+                  <c:v>5.3509000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8752999999999998E-2</c:v>
+                  <c:v>5.8851000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1938999999999999E-2</c:v>
+                  <c:v>5.4841000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.965E-2</c:v>
+                  <c:v>5.2320999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2888,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.2648000000000001E-2</v>
+        <v>2.4053999999999999E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>1.8343000000000002E-2</v>
+        <v>1.8183999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2899,10 +2899,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>6.3663999999999998E-2</v>
+        <v>5.6524999999999999E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>4.6628999999999997E-2</v>
+        <v>4.9658000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2910,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>4.6365000000000003E-2</v>
+        <v>4.5687999999999999E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>5.4593000000000003E-2</v>
+        <v>4.9090000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2921,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>6.5003000000000005E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>5.6809999999999999E-2</v>
+        <v>5.7638000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2932,10 +2932,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>5.8273999999999999E-2</v>
+        <v>6.1399000000000002E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>5.4737000000000001E-2</v>
+        <v>6.2960000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2943,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>7.1412000000000003E-2</v>
+        <v>6.5378000000000006E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>5.8272999999999998E-2</v>
+        <v>6.1316000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2954,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7.7787999999999996E-2</v>
+        <v>7.1617E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>6.0990000000000003E-2</v>
+        <v>6.2125E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2965,10 +2965,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>8.2048999999999997E-2</v>
+        <v>6.7573999999999995E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>6.1952E-2</v>
+        <v>5.8132999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +2983,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C9" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3004,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.3529999999999999E-2</v>
+        <v>2.8351999999999999E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>1.5834000000000001E-2</v>
+        <v>2.2835000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3015,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5.9660999999999999E-2</v>
+        <v>7.0140999999999995E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>4.3658000000000002E-2</v>
+        <v>3.8287000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3026,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>4.5213000000000003E-2</v>
+        <v>5.2141E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>4.4159999999999998E-2</v>
+        <v>4.8240999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3037,10 +3037,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>5.6910000000000002E-2</v>
+        <v>7.1817000000000006E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>4.8454999999999998E-2</v>
+        <v>5.9478999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3048,10 +3048,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6.1149000000000002E-2</v>
+        <v>7.1817000000000006E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>5.2305999999999998E-2</v>
+        <v>5.3509000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3059,10 +3059,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>6.3496999999999998E-2</v>
+        <v>7.5051999999999994E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>4.8752999999999998E-2</v>
+        <v>5.8851000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3070,10 +3070,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7.0893999999999999E-2</v>
+        <v>7.9209000000000002E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>5.1938999999999999E-2</v>
+        <v>5.4841000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3081,10 +3081,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>7.0289000000000004E-2</v>
+        <v>9.0805999999999998E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>4.965E-2</v>
+        <v>5.2320999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/Graphs.xlsx
+++ b/Lab2/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIKSS\Desktop\TDDD56\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AD2492-47B5-43B1-9E78-D3D796B9FE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B1CC0-39EE-4F72-943F-3D05B89AA913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -283,25 +283,25 @@
                   <c:v>2.4053999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6524999999999999E-2</c:v>
+                  <c:v>7.4907000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5687999999999999E-2</c:v>
+                  <c:v>5.2784999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>7.4476000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1399000000000002E-2</c:v>
+                  <c:v>7.8895999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5378000000000006E-2</c:v>
+                  <c:v>8.5299E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1617E-2</c:v>
+                  <c:v>8.3183999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7573999999999995E-2</c:v>
+                  <c:v>8.9274000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,28 +391,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8183999999999999E-2</c:v>
+                  <c:v>1.7347000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9658000000000001E-2</c:v>
+                  <c:v>6.3707E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9090000000000002E-2</c:v>
+                  <c:v>0.116369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7638000000000002E-2</c:v>
+                  <c:v>0.12856400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2960000000000002E-2</c:v>
+                  <c:v>0.13947999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1316000000000002E-2</c:v>
+                  <c:v>0.148121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2125E-2</c:v>
+                  <c:v>0.122057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8132999999999997E-2</c:v>
+                  <c:v>0.14699000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,28 +923,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.8351999999999999E-2</c:v>
+                  <c:v>3.2354000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0140999999999995E-2</c:v>
+                  <c:v>6.6284999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.2141E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1817000000000006E-2</c:v>
+                  <c:v>6.651E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.1817000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5051999999999994E-2</c:v>
+                  <c:v>7.8863000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9209000000000002E-2</c:v>
+                  <c:v>8.9412000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0805999999999998E-2</c:v>
+                  <c:v>8.7752999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,28 +1034,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.2835000000000001E-2</c:v>
+                  <c:v>2.5087999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8287000000000002E-2</c:v>
+                  <c:v>5.6069000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8240999999999999E-2</c:v>
+                  <c:v>8.6000999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9478999999999997E-2</c:v>
+                  <c:v>5.7652000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3509000000000001E-2</c:v>
+                  <c:v>7.5176999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8851000000000001E-2</c:v>
+                  <c:v>7.3452000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4841000000000001E-2</c:v>
+                  <c:v>7.1143999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2320999999999999E-2</c:v>
+                  <c:v>6.4856999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2891,7 +2891,7 @@
         <v>2.4053999999999999E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>1.8183999999999999E-2</v>
+        <v>1.7347000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2899,10 +2899,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5.6524999999999999E-2</v>
+        <v>7.4907000000000001E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>4.9658000000000001E-2</v>
+        <v>6.3707E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2910,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>4.5687999999999999E-2</v>
+        <v>5.2784999999999999E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>4.9090000000000002E-2</v>
+        <v>0.116369</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2921,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4476000000000001E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>5.7638000000000002E-2</v>
+        <v>0.12856400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2932,10 +2932,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6.1399000000000002E-2</v>
+        <v>7.8895999999999994E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>6.2960000000000002E-2</v>
+        <v>0.13947999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2943,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>6.5378000000000006E-2</v>
+        <v>8.5299E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>6.1316000000000002E-2</v>
+        <v>0.148121</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2954,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7.1617E-2</v>
+        <v>8.3183999999999994E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>6.2125E-2</v>
+        <v>0.122057</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2965,10 +2965,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>6.7573999999999995E-2</v>
+        <v>8.9274000000000006E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>5.8132999999999997E-2</v>
+        <v>0.14699000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +2983,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="B2:C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3004,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.8351999999999999E-2</v>
+        <v>3.2354000000000001E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>2.2835000000000001E-2</v>
+        <v>2.5087999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3015,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>7.0140999999999995E-2</v>
+        <v>6.6284999999999997E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>3.8287000000000002E-2</v>
+        <v>5.6069000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3029,7 +3029,7 @@
         <v>5.2141E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>4.8240999999999999E-2</v>
+        <v>8.6000999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3037,10 +3037,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>7.1817000000000006E-2</v>
+        <v>6.651E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>5.9478999999999997E-2</v>
+        <v>5.7652000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3051,7 +3051,7 @@
         <v>7.1817000000000006E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>5.3509000000000001E-2</v>
+        <v>7.5176999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3059,10 +3059,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>7.5051999999999994E-2</v>
+        <v>7.8863000000000003E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>5.8851000000000001E-2</v>
+        <v>7.3452000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3070,10 +3070,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7.9209000000000002E-2</v>
+        <v>8.9412000000000005E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>5.4841000000000001E-2</v>
+        <v>7.1143999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3081,10 +3081,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>9.0805999999999998E-2</v>
+        <v>8.7752999999999998E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>5.2320999999999999E-2</v>
+        <v>6.4856999999999998E-2</v>
       </c>
     </row>
   </sheetData>
